--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0EC6B9-8E10-44C3-8376-55263D01883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719A5AA-1E90-4F3E-A16F-482F28BFD639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
       <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
